--- a/Auto_Roll_Call_System/User_DATA/schedule.xlsx
+++ b/Auto_Roll_Call_System/User_DATA/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\學習歷程專案\Auto_Roll_Call_System\User_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric2\Desktop\HighSchool-Project\Auto_Roll_Call_System\User_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF789CD-9A1A-4D17-9932-BBE595B7272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1FACBB-6E2D-478D-A38D-B106F66A37DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
-  <si>
-    <t>數學</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>國文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化學</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="1">
   <si>
     <t>EMPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,7 +356,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -390,41 +366,41 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -438,70 +414,70 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
